--- a/__tests__/test-data/key.xlsx
+++ b/__tests__/test-data/key.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current\image-parsing\__tests__\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>Q1</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>POST</t>
@@ -1031,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BK2" sqref="BK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,13 +1216,13 @@
         <v>59</v>
       </c>
       <c r="BI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>66</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -1233,10 +1230,10 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -1254,106 +1251,106 @@
         <v>62</v>
       </c>
       <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
       </c>
       <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S2" t="s">
         <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
         <v>60</v>
       </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AK2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
         <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>62</v>
       </c>
       <c r="AQ2" t="s">
         <v>62</v>
@@ -1365,13 +1362,13 @@
         <v>63</v>
       </c>
       <c r="AT2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AW2" t="s">
         <v>62</v>
@@ -1380,7 +1377,7 @@
         <v>60</v>
       </c>
       <c r="AY2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AZ2" t="s">
         <v>63</v>
@@ -1392,22 +1389,22 @@
         <v>60</v>
       </c>
       <c r="BC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF2" t="s">
         <v>60</v>
       </c>
-      <c r="BD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>63</v>
-      </c>
       <c r="BG2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BH2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BI2">
         <v>1</v>

--- a/__tests__/test-data/key.xlsx
+++ b/__tests__/test-data/key.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current\image-parsing\__tests__\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Q1</t>
   </si>
@@ -216,10 +216,19 @@
     <t>POST</t>
   </si>
   <si>
-    <t>CENTER</t>
-  </si>
-  <si>
-    <t>TIME</t>
+    <t>ROLL_NO</t>
+  </si>
+  <si>
+    <t>TEST_CENTER</t>
+  </si>
+  <si>
+    <t>TEST_TIME</t>
+  </si>
+  <si>
+    <t>QUESTION_PAPER_TYPE</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -761,6 +770,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM2" totalsRowShown="0">
+  <autoFilter ref="A1:BM2"/>
+  <tableColumns count="65">
+    <tableColumn id="1" name="Q1"/>
+    <tableColumn id="2" name="Q2"/>
+    <tableColumn id="3" name="Q3"/>
+    <tableColumn id="4" name="Q4"/>
+    <tableColumn id="5" name="Q5"/>
+    <tableColumn id="6" name="Q6"/>
+    <tableColumn id="7" name="Q7"/>
+    <tableColumn id="8" name="Q8"/>
+    <tableColumn id="9" name="Q9"/>
+    <tableColumn id="10" name="Q10"/>
+    <tableColumn id="11" name="Q11"/>
+    <tableColumn id="12" name="Q12"/>
+    <tableColumn id="13" name="Q13"/>
+    <tableColumn id="14" name="Q14"/>
+    <tableColumn id="15" name="Q15"/>
+    <tableColumn id="16" name="Q16"/>
+    <tableColumn id="17" name="Q17"/>
+    <tableColumn id="18" name="Q18"/>
+    <tableColumn id="19" name="Q19"/>
+    <tableColumn id="20" name="Q20"/>
+    <tableColumn id="21" name="Q21"/>
+    <tableColumn id="22" name="Q22"/>
+    <tableColumn id="23" name="Q23"/>
+    <tableColumn id="24" name="Q24"/>
+    <tableColumn id="25" name="Q25"/>
+    <tableColumn id="26" name="Q26"/>
+    <tableColumn id="27" name="Q27"/>
+    <tableColumn id="28" name="Q28"/>
+    <tableColumn id="29" name="Q29"/>
+    <tableColumn id="30" name="Q30"/>
+    <tableColumn id="31" name="Q31"/>
+    <tableColumn id="32" name="Q32"/>
+    <tableColumn id="33" name="Q33"/>
+    <tableColumn id="34" name="Q34"/>
+    <tableColumn id="35" name="Q35"/>
+    <tableColumn id="36" name="Q36"/>
+    <tableColumn id="37" name="Q37"/>
+    <tableColumn id="38" name="Q38"/>
+    <tableColumn id="39" name="Q39"/>
+    <tableColumn id="40" name="Q40"/>
+    <tableColumn id="41" name="Q41"/>
+    <tableColumn id="42" name="Q42"/>
+    <tableColumn id="43" name="Q43"/>
+    <tableColumn id="44" name="Q44"/>
+    <tableColumn id="45" name="Q45"/>
+    <tableColumn id="46" name="Q46"/>
+    <tableColumn id="47" name="Q47"/>
+    <tableColumn id="48" name="Q48"/>
+    <tableColumn id="49" name="Q49"/>
+    <tableColumn id="50" name="Q50"/>
+    <tableColumn id="51" name="Q51"/>
+    <tableColumn id="52" name="Q52"/>
+    <tableColumn id="53" name="Q53"/>
+    <tableColumn id="54" name="Q54"/>
+    <tableColumn id="55" name="Q55"/>
+    <tableColumn id="56" name="Q56"/>
+    <tableColumn id="57" name="Q57"/>
+    <tableColumn id="58" name="Q58"/>
+    <tableColumn id="59" name="Q59"/>
+    <tableColumn id="60" name="Q60"/>
+    <tableColumn id="61" name="ROLL_NO"/>
+    <tableColumn id="62" name="POST"/>
+    <tableColumn id="63" name="TEST_CENTER"/>
+    <tableColumn id="64" name="TEST_TIME"/>
+    <tableColumn id="65" name="QUESTION_PAPER_TYPE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,15 +1109,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="60" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,16 +1308,22 @@
         <v>59</v>
       </c>
       <c r="BI1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>64</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>65</v>
       </c>
       <c r="BK1" t="s">
         <v>66</v>
       </c>
+      <c r="BL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1406,17 +1504,26 @@
       <c r="BH2" t="s">
         <v>62</v>
       </c>
-      <c r="BI2">
-        <v>1</v>
+      <c r="BI2" t="s">
+        <v>69</v>
       </c>
       <c r="BJ2">
         <v>1</v>
       </c>
       <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>